--- a/similarities/split_global/harmonic_similarity_timestamps_323.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_323.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7/b7', 'Bb:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:20.800000', '0:01:37.580000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:49.217000', '0:00:55.415000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=80.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Db', 'Ab', 'Db:maj6/2']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:01:03.858000', '0:01:20.628000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:01:12.260000', '0:01:15.560000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=63.858</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=72.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:19.520000', '0:01:22.060000')]</t>
+          <t>('0:01:54.680000', '0:02:12.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.598321', '0:00:14.743083')]</t>
+          <t>('0:00:37.020000', '0:00:49.640000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=79.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=114.68</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=10.598321']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=37.02</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G/3', 'C:maj', 'G/3', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:21.130907', '0:02:36.734716')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:38.720000', '0:02:42.660000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=141.130907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=158.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+          <t>('0:00:02.612267', '0:00:17.443474')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=22.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7/b7', 'Bb:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:49.217000', '0:00:55.415000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:14.380000', '0:01:30.640000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=74.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:19.060000', '0:00:30.080000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.300000'), ('0:00:10.380000', '0:00:16.320000'), ('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:34.232000', '0:00:40.821000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:14.360000', '0:00:19.220000'), ('0:00:01.540000', '0:00:06.680000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:55.180000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:02.820000'), ('0:01:07.560000', '0:01:14.100000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000'), ('0:00:20.730000', '0:00:24.830000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:10.300000', '0:04:17.660000')]</t>
+          <t>('0:02:37.840000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:21.940000')]</t>
+          <t>('0:00:31.840929', '0:00:37.216349')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:12.020000')]</t>
+          <t>('0:00:07.700000', '0:00:22.160000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:46.272131', '0:00:52.170000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:11.080000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=46.272131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['A:7', 'D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'F:min7']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.420000', '0:00:20.840000')]</t>
+          <t>('0:00:16.810929', '0:00:24.845034')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:41.090000', '0:01:47.520000')]</t>
+          <t>('0:00:53.530000', '0:01:00.920000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=11.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=16.810929</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=101.09']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=53.53</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
